--- a/AP Digital Squarenine/DIGStampS9 - Dispatcher/Data/Config.xlsx
+++ b/AP Digital Squarenine/DIGStampS9 - Dispatcher/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1Files\UPProjects\Squarenine\DIGStampS9 - Dispatcher\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1Files\UPProjects\AP Digital Squarenine\DIGStampS9 - Dispatcher\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F07E7B-B195-4A98-A11A-65D03B3C6590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56737688-B43B-4CC2-A6FD-3A0CB5576F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -204,13 +204,22 @@
   </si>
   <si>
     <t>Dev_S9_Queue_PENDING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upload Attachment on share point </t>
+  </si>
+  <si>
+    <t>Sharepoint_URLS</t>
+  </si>
+  <si>
+    <t>https://insidemedia.sharepoint.com/sites/GRMUSA-APDIGITAL2022/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -248,6 +257,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -266,13 +281,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -294,8 +310,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -614,7 +632,7 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -783,8 +801,20 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="B14" s="13"/>
+    </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -1769,8 +1799,11 @@
     <row r="996" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="3"/>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{E6DF4A3C-68A8-4C7A-93B9-00A6B9FC50EA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
